--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/transmission_matrix.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/transmission_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D526F-488C-4561-BE3E-57FC4B2D3269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C7F1F5-0A4F-4A7D-B7D5-96685CCB1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9EDCD067-313C-4569-9FCB-C34DD48B94E6}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{9EDCD067-313C-4569-9FCB-C34DD48B94E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,9 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EF7C45-C4CB-41A5-9F6E-B231E65F3F3B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -420,7 +414,7 @@
         <v>0.18</v>
       </c>
       <c r="B1">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="C1">
         <v>0.03</v>
@@ -428,7 +422,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="B2">
         <v>0.12</v>
